--- a/data-raw/bose.multi.xlsx
+++ b/data-raw/bose.multi.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D00A4D-9C9B-41D8-AC0C-68802E627784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="14340" windowHeight="9000" activeTab="2"/>
+    <workbookView xWindow="3540" yWindow="2500" windowWidth="7590" windowHeight="8130" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0."/>
     <numFmt numFmtId="165" formatCode=".000"/>
@@ -73,14 +74,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -115,9 +110,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -155,7 +150,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -261,7 +256,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -403,33 +398,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.109375" customWidth="1"/>
-    <col min="3" max="3" width="4.5546875" customWidth="1"/>
+    <col min="2" max="2" width="5.08984375" customWidth="1"/>
+    <col min="3" max="3" width="4.54296875" customWidth="1"/>
     <col min="4" max="6" width="5" customWidth="1"/>
-    <col min="7" max="8" width="4.88671875" customWidth="1"/>
+    <col min="7" max="8" width="4.90625" customWidth="1"/>
     <col min="9" max="13" width="5" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" customWidth="1"/>
-    <col min="15" max="15" width="5.44140625" customWidth="1"/>
+    <col min="14" max="14" width="5.6328125" customWidth="1"/>
+    <col min="15" max="15" width="5.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>880</v>
       </c>
@@ -466,7 +461,7 @@
       <c r="L1" s="1">
         <v>525</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="1">
         <v>500</v>
       </c>
       <c r="N1" s="1">
@@ -476,7 +471,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>715</v>
       </c>
@@ -513,7 +508,7 @@
       <c r="L2" s="1">
         <v>565</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="1">
         <v>675</v>
       </c>
       <c r="N2" s="1">
@@ -523,7 +518,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>970</v>
       </c>
@@ -560,7 +555,7 @@
       <c r="L3" s="1">
         <v>685</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>600</v>
       </c>
       <c r="N3" s="1">
@@ -570,7 +565,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>410</v>
       </c>
@@ -607,17 +602,17 @@
       <c r="L4" s="1">
         <v>625</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <v>610</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <v>470</v>
       </c>
       <c r="O4" s="1">
         <v>365</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>585</v>
       </c>
@@ -654,17 +649,17 @@
       <c r="L5" s="1">
         <v>670</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <v>620</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <v>600</v>
       </c>
       <c r="O5" s="1">
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>630</v>
       </c>
@@ -701,17 +696,17 @@
       <c r="L6" s="1">
         <v>555</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <v>670</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <v>510</v>
       </c>
       <c r="O6" s="1">
         <v>530</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>680</v>
       </c>
@@ -748,17 +743,17 @@
       <c r="L7" s="1">
         <v>490</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <v>445</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="1">
         <v>595</v>
       </c>
       <c r="O7" s="1">
         <v>560</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>855</v>
       </c>
@@ -795,17 +790,17 @@
       <c r="L8" s="1">
         <v>545</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="1">
         <v>355</v>
       </c>
       <c r="O8" s="1">
         <v>495</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1010</v>
       </c>
@@ -842,17 +837,17 @@
       <c r="L9" s="1">
         <v>520</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="1">
         <v>540</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="1">
         <v>420</v>
       </c>
       <c r="O9" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>890</v>
       </c>
@@ -889,17 +884,17 @@
       <c r="L10" s="2">
         <v>300</v>
       </c>
-      <c r="M10" s="4">
+      <c r="M10" s="2">
         <v>595</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="1">
         <v>430</v>
       </c>
       <c r="O10" s="1">
         <v>265</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>805</v>
       </c>
@@ -936,17 +931,17 @@
       <c r="L11" s="1">
         <v>460</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="1">
         <v>500</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="1">
         <v>490</v>
       </c>
       <c r="O11" s="1">
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1040</v>
       </c>
@@ -983,17 +978,17 @@
       <c r="L12" s="1">
         <v>565</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="1">
         <v>545</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="2">
         <v>510</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>570</v>
       </c>
@@ -1030,17 +1025,17 @@
       <c r="L13" s="1">
         <v>580</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="1">
         <v>560</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="2">
         <v>585</v>
       </c>
-      <c r="O13" s="5">
+      <c r="O13" s="3">
         <v>395</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>790</v>
       </c>
@@ -1077,17 +1072,17 @@
       <c r="L14" s="1">
         <v>625</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="1">
         <v>530</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="1">
         <v>465</v>
       </c>
       <c r="O14" s="1">
         <v>405</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>920</v>
       </c>
@@ -1124,17 +1119,17 @@
       <c r="L15" s="1">
         <v>375</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="1">
         <v>450</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="1">
         <v>500</v>
       </c>
       <c r="O15" s="1">
         <v>505</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>895</v>
       </c>
@@ -1171,17 +1166,17 @@
       <c r="L16" s="1">
         <v>800</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="1">
         <v>555</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="1">
         <v>500</v>
       </c>
       <c r="O16" s="1">
         <v>585</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>810</v>
       </c>
@@ -1218,17 +1213,17 @@
       <c r="L17" s="1">
         <v>565</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="1">
         <v>610</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="1">
         <v>660</v>
       </c>
       <c r="O17" s="1">
         <v>490</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>935</v>
       </c>
@@ -1265,17 +1260,17 @@
       <c r="L18" s="1">
         <v>605</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="1">
         <v>690</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="1">
         <v>360</v>
       </c>
       <c r="O18" s="1">
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>900</v>
       </c>
@@ -1312,17 +1307,17 @@
       <c r="L19" s="1">
         <v>570</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="1">
         <v>650</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="1">
         <v>310</v>
       </c>
       <c r="O19" s="1">
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>755</v>
       </c>
@@ -1335,7 +1330,7 @@
       <c r="D20" s="1">
         <v>695</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="4">
         <v>815</v>
       </c>
       <c r="F20" s="1">
@@ -1359,24 +1354,24 @@
       <c r="L20" s="1">
         <v>470</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="1">
         <v>420</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="1">
         <v>435</v>
       </c>
       <c r="O20" s="1">
         <v>305</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>670</v>
       </c>
       <c r="B21" s="1">
         <v>720</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>800</v>
       </c>
       <c r="D21" s="1">
@@ -1406,17 +1401,17 @@
       <c r="L21" s="1">
         <v>545</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="1">
         <v>425</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="1">
         <v>450</v>
       </c>
       <c r="O21" s="1">
         <v>315</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>780</v>
       </c>
@@ -1453,17 +1448,17 @@
       <c r="L22" s="1">
         <v>350</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="1">
         <v>370</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="1">
         <v>360</v>
       </c>
       <c r="O22" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>885</v>
       </c>
@@ -1500,17 +1495,17 @@
       <c r="L23" s="1">
         <v>755</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="1">
         <v>550</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="1">
         <v>480</v>
       </c>
       <c r="O23" s="1">
         <v>365</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>940</v>
       </c>
@@ -1547,17 +1542,17 @@
       <c r="L24" s="1">
         <v>410</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="1">
         <v>420</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="1">
         <v>355</v>
       </c>
       <c r="O24" s="1">
         <v>390</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>880</v>
       </c>
@@ -1594,17 +1589,17 @@
       <c r="L25" s="1">
         <v>605</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="1">
         <v>650</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="1">
         <v>375</v>
       </c>
       <c r="O25" s="1">
         <v>280</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>955</v>
       </c>
@@ -1641,18 +1636,18 @@
       <c r="L26" s="1">
         <v>660</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="1">
         <v>710</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="1">
         <v>420</v>
       </c>
       <c r="O26" s="1">
         <v>515</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A29" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="1.25" right="1.25" top="1" bottom="0.79166666666666696" header="0.25" footer="0.25"/>
@@ -1660,1239 +1655,1239 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="6.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="6.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
         <v>70</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B1" s="1">
         <v>220</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="1">
         <v>265</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="1">
         <v>230</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="1">
         <v>248</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="1">
         <v>322</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="1">
         <v>205</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="1">
         <v>250</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="1">
         <v>180</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="1">
         <v>225</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="1">
         <v>235</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="1">
         <v>280</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="1">
         <v>155</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="1">
         <v>190</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
         <v>248</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>258</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="1">
         <v>215</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>220</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>200</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>185</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="1">
         <v>185</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>258</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="1">
         <v>120</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>215</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="1">
         <v>145</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="1">
         <v>190</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="1">
         <v>210</v>
       </c>
-      <c r="N2" s="3">
+      <c r="N2" s="1">
         <v>180</v>
       </c>
-      <c r="O2" s="3">
+      <c r="O2" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
         <v>275</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>402</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>225</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>120</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>275</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>195</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="1">
         <v>200</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>220</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>217</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>185</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="1">
         <v>335</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="1">
         <v>250</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
         <v>235</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="1">
         <v>190</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>270</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>400</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>385</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>240</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>225</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>200</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="1">
         <v>200</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>252</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="1">
         <v>255</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>268</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="1">
         <v>235</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="1">
         <v>220</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
         <v>300</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="1">
         <v>130</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>195</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>230</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <v>335</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>272</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>200</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>210</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="1">
         <v>190</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>340</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>205</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>222</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="1">
         <v>295</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="1">
         <v>160</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="1">
         <v>230</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="1">
         <v>235</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
         <v>240</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="1">
         <v>348</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>335</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>296</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>185</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>250</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>185</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>235</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>160</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>170</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>225</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <v>235</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <v>250</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <v>132</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+    <row r="7" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
         <v>275</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>280</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>325</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>390</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>200</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>215</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>210</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>175</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="1">
         <v>212</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <v>142</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="1">
         <v>270</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="1">
         <v>240</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
         <v>220</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="1">
         <v>120</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="1">
         <v>270</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+    <row r="8" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
         <v>218</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
         <v>335</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>400</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>370</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>235</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>340</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>260</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>310</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="1">
         <v>305</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>160</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="1">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="1">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1">
         <v>335</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="1">
         <v>232</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
         <v>260</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>415</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <v>430</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>365</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>230</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>220</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="1">
         <v>245</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>370</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>232</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <v>232</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="1">
         <v>222</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="1">
         <v>215</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="1">
         <v>235</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="1">
         <v>150</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
         <v>275</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="1">
         <v>375</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <v>360</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>340</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>240</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>250</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="1">
         <v>160</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>375</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>257</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>232</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="1">
         <v>340</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="1">
         <v>260</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="1">
         <v>260</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="1">
         <v>190</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="1">
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
         <v>335</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>392</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <v>305</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>300</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>200</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>232</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="1">
         <v>225</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>345</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>210</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="1">
         <v>280</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="1">
         <v>180</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="1">
         <v>185</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="1">
         <v>310</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="1">
         <v>280</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="1">
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
         <v>345</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>380</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>360</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <v>320</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="1">
         <v>265</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="1">
         <v>255</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="1">
         <v>220</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="1">
         <v>420</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="1">
         <v>200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="1">
         <v>155</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="1">
         <v>250</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="1">
         <v>255</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="1">
         <v>235</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="1">
         <v>260</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
         <v>270</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>310</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <v>415</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <v>385</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="1">
         <v>250</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="1">
         <v>262</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="1">
         <v>230</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="1">
         <v>290</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="1">
         <v>190</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="1">
         <v>280</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="1">
         <v>320</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="1">
         <v>220</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="1">
         <v>290</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="1">
         <v>160</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
         <v>155</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="1">
         <v>395</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <v>355</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <v>398</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="1">
         <v>330</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="1">
         <v>265</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="1">
         <v>255</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="1">
         <v>350</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="1">
         <v>172</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="1">
         <v>260</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="1">
         <v>328</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="1">
         <v>190</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="1">
         <v>280</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="1">
         <v>255</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
         <v>295</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>318</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <v>305</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <v>408</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="1">
         <v>215</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="1">
         <v>247</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="1">
         <v>235</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="1">
         <v>400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="1">
         <v>182</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="1">
         <v>280</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="1">
         <v>315</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="1">
         <v>245</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="1">
         <v>345</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="1">
         <v>140</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="1">
         <v>250</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
         <v>335</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="1">
         <v>185</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <v>422</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <v>190</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="1">
         <v>220</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="1">
         <v>210</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="1">
         <v>155</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="1">
         <v>335</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="1">
         <v>130</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="1">
         <v>265</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="1">
         <v>245</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="1">
         <v>300</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="1">
         <v>208</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="1">
         <v>140</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="1">
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>242</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>280</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <v>295</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <v>305</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="1">
         <v>225</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="1">
         <v>210</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="1">
         <v>295</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="1">
         <v>345</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="1">
         <v>132</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="1">
         <v>258</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
         <v>215</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="1">
         <v>132</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="1">
         <v>130</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="1">
         <v>135</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="1">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>305</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="1">
         <v>310</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <v>400</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <v>312</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="1">
         <v>450</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="1">
         <v>210</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="1">
         <v>305</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="1">
         <v>290</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="1">
         <v>182</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="1">
         <v>342</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="1">
         <v>275</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="1">
         <v>145</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="1">
         <v>210</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="1">
         <v>180</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="1">
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>380</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>250</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <v>320</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <v>322</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="1">
         <v>300</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="1">
         <v>327</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="1">
         <v>232</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="1">
         <v>290</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="1">
         <v>320</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="1">
         <v>305</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="1">
         <v>260</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="1">
         <v>165</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="1">
         <v>140</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="1">
         <v>140</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="1">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>318</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="1">
         <v>367</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <v>355</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <v>225</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="1">
         <v>348</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="1">
         <v>232</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="1">
         <v>230</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="1">
         <v>320</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="1">
         <v>150</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="1">
         <v>345</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <v>290</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="1">
         <v>265</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="1">
         <v>265</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="1">
         <v>160</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>347</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>412</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <v>280</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="1">
         <v>290</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="1">
         <v>205</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="1">
         <v>287</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="1">
         <v>315</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="1">
         <v>185</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="1">
         <v>355</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="1">
         <v>220</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="1">
         <v>240</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="1">
         <v>280</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="1">
         <v>180</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="1">
         <v>295</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>260</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="1">
         <v>308</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <v>305</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <v>230</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="1">
         <v>230</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="1">
         <v>205</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="1">
         <v>315</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="1">
         <v>385</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="1">
         <v>185</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="1">
         <v>225</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <v>257</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="1">
         <v>222</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="1">
         <v>237</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="1">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="1">
         <v>230</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
         <v>264</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>308</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <v>280</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <v>270</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="1">
         <v>310</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="1">
         <v>235</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="1">
         <v>265</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="1">
         <v>380</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="1">
         <v>285</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="1">
         <v>227</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="1">
         <v>235</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="1">
         <v>200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="1">
         <v>267</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="1">
         <v>165</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
         <v>248</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="1">
         <v>318</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <v>280</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <v>270</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="1">
         <v>205</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="1">
         <v>275</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="1">
         <v>320</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="1">
         <v>328</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="1">
         <v>245</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="1">
         <v>192</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="1">
         <v>180</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="1">
         <v>200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="1">
         <v>235</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="1">
         <v>185</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="1">
         <v>240</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
         <v>210</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>315</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <v>265</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <v>260</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="1">
         <v>155</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="1">
         <v>200</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="1">
         <v>415</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="1">
         <v>370</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="1">
         <v>255</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="1">
         <v>170</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <v>150</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="1">
         <v>190</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="1">
         <v>245</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="1">
         <v>245</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
         <v>230</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="1">
         <v>302</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>180</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <v>270</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="1">
         <v>170</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="1">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="1">
         <v>335</v>
       </c>
-      <c r="H26" s="3">
+      <c r="H26" s="1">
         <v>312</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="1">
         <v>315</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="1">
         <v>260</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="1">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="1">
         <v>187</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="1">
         <v>155</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="1">
         <v>150</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P27" s="8"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="P27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2900,19 +2895,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="4.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>412</v>
       </c>
@@ -2959,7 +2954,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>325</v>
       </c>
@@ -3006,7 +3001,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>312</v>
       </c>
@@ -3053,7 +3048,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>288</v>
       </c>
@@ -3100,7 +3095,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>273</v>
       </c>
@@ -3147,7 +3142,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>332</v>
       </c>
@@ -3194,7 +3189,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>431</v>
       </c>
@@ -3241,7 +3236,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>342</v>
       </c>
@@ -3288,7 +3283,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>401</v>
       </c>
@@ -3335,7 +3330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>394</v>
       </c>
@@ -3382,7 +3377,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>275</v>
       </c>
@@ -3429,7 +3424,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>338</v>
       </c>
@@ -3476,7 +3471,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>285</v>
       </c>
@@ -3523,7 +3518,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>306</v>
       </c>
@@ -3570,7 +3565,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>253</v>
       </c>
@@ -3617,7 +3612,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>276</v>
       </c>
@@ -3664,7 +3659,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>235</v>
       </c>
@@ -3711,7 +3706,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>252</v>
       </c>
@@ -3758,7 +3753,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>305</v>
       </c>
@@ -3805,7 +3800,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>226</v>
       </c>
@@ -3852,7 +3847,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>307</v>
       </c>
@@ -3899,7 +3894,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>252</v>
       </c>
@@ -3946,7 +3941,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>226</v>
       </c>
@@ -3993,7 +3988,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>261</v>
       </c>
@@ -4040,7 +4035,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>282</v>
       </c>
@@ -4087,7 +4082,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>243</v>
       </c>
